--- a/public/Hyundai All Data.xlsx
+++ b/public/Hyundai All Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milad.moradi\Desktop\Demo Portal\ReactVideo\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6707A31F-8F49-4AEC-A8BC-B45E64FE67BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FEF7F-1A4B-4F59-ABA2-496DFF45797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9A5EA03E-B89D-0E4D-B944-BE1D488626D3}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>Flyer</t>
-  </si>
-  <si>
     <t>Web Banner</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>/Assets/Hyundai Car Images/14.webp</t>
+  </si>
+  <si>
+    <t>All Products</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -509,6 +509,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF9CA3AF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -880,7 +887,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -904,6 +911,7 @@
     <xf numFmtId="49" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1282,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F6707-D549-C24E-8638-9822459C6453}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1323,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1336,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>5</v>
@@ -1366,24 +1374,24 @@
         <v>12</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>1096</v>
@@ -1403,11 +1411,11 @@
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
+      <c r="H2" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2">
         <v>2026</v>
@@ -1416,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -1425,7 +1433,7 @@
         <v>18359964</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>16</v>
@@ -1434,25 +1442,25 @@
         <v>15</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" s="1" t="str">
         <f>O2</f>
         <v>2026 Hyundai Elantra in Abyss Black Pearl</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>1343</v>
@@ -1472,11 +1480,11 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
+      <c r="H3" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2">
         <v>2026</v>
@@ -1485,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>14</v>
@@ -1494,7 +1502,7 @@
         <v>78764678</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>16</v>
@@ -1503,22 +1511,22 @@
         <v>15</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S3" s="1" t="str">
         <f t="shared" ref="S3:S15" si="0">O3</f>
         <v>2026 Hyundai Elantra in White Metallic</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>1348</v>
@@ -1538,11 +1546,11 @@
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
+      <c r="H4" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2">
         <v>2026</v>
@@ -1551,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>14</v>
@@ -1560,7 +1568,7 @@
         <v>31157098</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>16</v>
@@ -1569,25 +1577,25 @@
         <v>15</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai Elantra in Intense Blue Metallic</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>1098</v>
@@ -1607,11 +1615,11 @@
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
+      <c r="H5" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2">
         <v>2026</v>
@@ -1620,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>14</v>
@@ -1629,7 +1637,7 @@
         <v>50116584</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>16</v>
@@ -1638,25 +1646,25 @@
         <v>15</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai IONIQ 5 in Abyss Black Pearl</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>1099</v>
@@ -1676,11 +1684,11 @@
       <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
+      <c r="H6" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2">
         <v>2026</v>
@@ -1689,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -1698,7 +1706,7 @@
         <v>50153122</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>16</v>
@@ -1707,25 +1715,25 @@
         <v>15</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai IONIQ 5 in Atlas White Solid</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>1100</v>
@@ -1745,11 +1753,11 @@
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
+      <c r="H7" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2">
         <v>2026</v>
@@ -1758,7 +1766,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -1767,7 +1775,7 @@
         <v>30361316</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>16</v>
@@ -1776,25 +1784,25 @@
         <v>15</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai IONIQ 5 in Lucid Blue Pearl</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>1101</v>
@@ -1814,11 +1822,11 @@
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
+      <c r="H8" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2">
         <v>2026</v>
@@ -1827,7 +1835,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -1836,7 +1844,7 @@
         <v>9310340</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>16</v>
@@ -1845,25 +1853,25 @@
         <v>15</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai IONIQ 9 in Abyss Black Pearl</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1">
         <v>1102</v>
@@ -1883,11 +1891,11 @@
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>34</v>
+      <c r="H9" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2">
         <v>2026</v>
@@ -1896,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>14</v>
@@ -1905,7 +1913,7 @@
         <v>50191456</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>16</v>
@@ -1914,25 +1922,25 @@
         <v>15</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai IONIQ 9 in Serenity White Pearl</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1">
         <v>1103</v>
@@ -1952,11 +1960,11 @@
       <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
+      <c r="H10" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="2">
         <v>2026</v>
@@ -1965,7 +1973,7 @@
         <v>9</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>14</v>
@@ -1974,7 +1982,7 @@
         <v>30589515</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>16</v>
@@ -1983,25 +1991,25 @@
         <v>15</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai IONIQ 9 in Nocturne Grey</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>1104</v>
@@ -2021,11 +2029,11 @@
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
+      <c r="H11" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="2">
         <v>2025</v>
@@ -2034,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
@@ -2043,7 +2051,7 @@
         <v>30428331</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>16</v>
@@ -2052,25 +2060,25 @@
         <v>15</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai Kona in Abyss Black Pearl</v>
       </c>
       <c r="T11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>1105</v>
@@ -2090,11 +2098,11 @@
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>34</v>
+      <c r="H12" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="2">
         <v>2025</v>
@@ -2103,7 +2111,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>14</v>
@@ -2112,7 +2120,7 @@
         <v>9481890</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>16</v>
@@ -2121,25 +2129,25 @@
         <v>15</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai Kona in Atlas White Solid</v>
       </c>
       <c r="T12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1">
         <v>1106</v>
@@ -2159,11 +2167,11 @@
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>34</v>
+      <c r="H13" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" s="2">
         <v>2025</v>
@@ -2172,7 +2180,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>14</v>
@@ -2181,7 +2189,7 @@
         <v>31146745</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>16</v>
@@ -2190,25 +2198,25 @@
         <v>15</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai Kona in Meta Ultimate Red</v>
       </c>
       <c r="T13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1">
         <v>1140</v>
@@ -2228,11 +2236,11 @@
       <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>34</v>
+      <c r="H14" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="2">
         <v>2025</v>
@@ -2241,7 +2249,7 @@
         <v>13</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>14</v>
@@ -2250,7 +2258,7 @@
         <v>31447171</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>16</v>
@@ -2259,25 +2267,25 @@
         <v>15</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai Kona Electric in Abyss Black Pearl</v>
       </c>
       <c r="T14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1">
         <v>1141</v>
@@ -2297,11 +2305,11 @@
       <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>34</v>
+      <c r="H15" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="2">
         <v>2025</v>
@@ -2310,7 +2318,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>14</v>
@@ -2319,7 +2327,7 @@
         <v>9499166</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>16</v>
@@ -2328,25 +2336,25 @@
         <v>15</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2026 Hyundai Kona Electric in Atlas White Solid</v>
       </c>
       <c r="T15" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1">
         <v>1212</v>
@@ -2367,16 +2375,16 @@
         <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>14</v>
@@ -2385,7 +2393,7 @@
         <v>18359964</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>16</v>
@@ -2394,25 +2402,25 @@
         <v>15</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S16" s="1" t="str">
         <f>O16</f>
         <v>2026 Hyundai Elantra in Abyss Black Pearl</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
         <v>1213</v>
@@ -2433,16 +2441,16 @@
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>14</v>
@@ -2451,7 +2459,7 @@
         <v>78764678</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>16</v>
@@ -2460,22 +2468,22 @@
         <v>15</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S17" s="1" t="str">
         <f t="shared" ref="S17:S18" si="1">O17</f>
         <v>2026 Hyundai Elantra in White Metallic</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <v>1214</v>
@@ -2496,16 +2504,16 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="1">
         <v>3</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>14</v>
@@ -2514,7 +2522,7 @@
         <v>31157098</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>16</v>
@@ -2523,25 +2531,25 @@
         <v>15</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>2026 Hyundai Elantra in Intense Blue Metallic</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>1215</v>
@@ -2562,16 +2570,16 @@
         <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>14</v>
@@ -2580,7 +2588,7 @@
         <v>18359964</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>16</v>
@@ -2589,25 +2597,25 @@
         <v>15</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S19" s="1" t="str">
         <f>O19</f>
         <v>2026 Hyundai Elantra in Abyss Black Pearl</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>1216</v>
@@ -2628,16 +2636,16 @@
         <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="1">
         <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>14</v>
@@ -2646,7 +2654,7 @@
         <v>78764678</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>16</v>
@@ -2655,22 +2663,22 @@
         <v>15</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S20" s="1" t="str">
         <f t="shared" ref="S20:S21" si="2">O20</f>
         <v>2026 Hyundai Elantra in White Metallic</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1">
         <v>1217</v>
@@ -2691,16 +2699,16 @@
         <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="1">
         <v>3</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>14</v>
@@ -2709,7 +2717,7 @@
         <v>31157098</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>16</v>
@@ -2718,25 +2726,25 @@
         <v>15</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>2026 Hyundai Elantra in Intense Blue Metallic</v>
       </c>
       <c r="T21" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>1218</v>
@@ -2757,16 +2765,16 @@
         <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22" s="1">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>14</v>
@@ -2775,7 +2783,7 @@
         <v>18359964</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>16</v>
@@ -2784,25 +2792,25 @@
         <v>15</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S22" s="1" t="str">
         <f>O22</f>
         <v>2026 Hyundai Elantra in Abyss Black Pearl</v>
       </c>
       <c r="T22" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>1219</v>
@@ -2823,16 +2831,16 @@
         <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>14</v>
@@ -2841,7 +2849,7 @@
         <v>78764678</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>16</v>
@@ -2850,22 +2858,22 @@
         <v>15</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S23" s="1" t="str">
         <f t="shared" ref="S23:S24" si="3">O23</f>
         <v>2026 Hyundai Elantra in White Metallic</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>1220</v>
@@ -2886,16 +2894,16 @@
         <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K24" s="1">
         <v>3</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>14</v>
@@ -2904,7 +2912,7 @@
         <v>31157098</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>16</v>
@@ -2913,25 +2921,25 @@
         <v>15</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S24" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2026 Hyundai Elantra in Intense Blue Metallic</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>1221</v>
@@ -2952,16 +2960,16 @@
         <v>17</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>14</v>
@@ -2970,7 +2978,7 @@
         <v>18359964</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>16</v>
@@ -2979,25 +2987,25 @@
         <v>15</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S25" s="1" t="str">
         <f>O25</f>
         <v>2026 Hyundai Elantra in Abyss Black Pearl</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1">
         <v>1222</v>
@@ -3018,16 +3026,16 @@
         <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>14</v>
@@ -3036,7 +3044,7 @@
         <v>78764678</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>16</v>
@@ -3045,22 +3053,22 @@
         <v>15</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S26" s="1" t="str">
         <f t="shared" ref="S26:S27" si="4">O26</f>
         <v>2026 Hyundai Elantra in White Metallic</v>
       </c>
       <c r="T26" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1">
         <v>1223</v>
@@ -3081,16 +3089,16 @@
         <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="1">
         <v>3</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>14</v>
@@ -3099,7 +3107,7 @@
         <v>31157098</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>16</v>
@@ -3108,25 +3116,25 @@
         <v>15</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S27" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2026 Hyundai Elantra in Intense Blue Metallic</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1">
         <v>1224</v>
@@ -3147,16 +3155,16 @@
         <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>14</v>
@@ -3165,7 +3173,7 @@
         <v>18359964</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>16</v>
@@ -3174,25 +3182,25 @@
         <v>15</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S28" s="1" t="str">
         <f>O28</f>
         <v>2026 Hyundai Elantra in Abyss Black Pearl</v>
       </c>
       <c r="T28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>1225</v>
@@ -3213,16 +3221,16 @@
         <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29" s="1">
         <v>2</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>14</v>
@@ -3231,7 +3239,7 @@
         <v>78764678</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>16</v>
@@ -3240,22 +3248,22 @@
         <v>15</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S29" s="1" t="str">
         <f t="shared" ref="S29:S30" si="5">O29</f>
         <v>2026 Hyundai Elantra in White Metallic</v>
       </c>
       <c r="T29" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="1">
         <v>1226</v>
@@ -3276,16 +3284,16 @@
         <v>17</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30" s="1">
         <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>14</v>
@@ -3294,7 +3302,7 @@
         <v>31157098</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>16</v>
@@ -3303,25 +3311,25 @@
         <v>15</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S30" s="1" t="str">
         <f t="shared" si="5"/>
         <v>2026 Hyundai Elantra in Intense Blue Metallic</v>
       </c>
       <c r="T30" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>1227</v>
@@ -3342,16 +3350,16 @@
         <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>14</v>
@@ -3360,7 +3368,7 @@
         <v>18359964</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>16</v>
@@ -3369,25 +3377,25 @@
         <v>15</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S31" s="1" t="str">
         <f>O31</f>
         <v>2026 Hyundai Elantra in Abyss Black Pearl</v>
       </c>
       <c r="T31" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <v>1228</v>
@@ -3408,16 +3416,16 @@
         <v>17</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>14</v>
@@ -3426,7 +3434,7 @@
         <v>78764678</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>16</v>
@@ -3435,22 +3443,22 @@
         <v>15</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S32" s="1" t="str">
         <f t="shared" ref="S32:S33" si="6">O32</f>
         <v>2026 Hyundai Elantra in White Metallic</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <v>1229</v>
@@ -3471,16 +3479,16 @@
         <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33" s="1">
         <v>3</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>14</v>
@@ -3489,7 +3497,7 @@
         <v>31157098</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>16</v>
@@ -3498,20 +3506,20 @@
         <v>15</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S33" s="1" t="str">
         <f t="shared" si="6"/>
         <v>2026 Hyundai Elantra in Intense Blue Metallic</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
